--- a/WP.xlsx
+++ b/WP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agungperdananto/Documents/SPK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB343BFB-FD5A-574F-86EE-646406F57850}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{870BA124-3103-654A-8EE2-713B9801C0DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="20100" windowHeight="13520" xr2:uid="{E5BC9F12-8348-D542-92F9-C1828350C36A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" activeTab="1" xr2:uid="{E5BC9F12-8348-D542-92F9-C1828350C36A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,98 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,12 +128,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +480,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA63CB19-02CD-EC40-BD27-FEE9D5841EC1}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <v>0.31</v>
+      </c>
+      <c r="D2">
+        <v>0.23</v>
+      </c>
+      <c r="E2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <f>B4^(-B2)*C4^C2*D4^D2*E4^E2</f>
+        <v>2.5176074175207623</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4/SUM(G4:G11)</f>
+        <v>0.16497827791688696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <f>B5^(-B2)*C5^C2*D5^D2*E5^E2</f>
+        <v>2.3343957486887978</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <f>G5/SUM(G4:G11)</f>
+        <v>0.15297245627534534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <f>B6^(-B2)*C6^C2*D6^D2*E6^E2</f>
+        <v>2.1488935239911826</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <f>G6/SUM(G4:G11)</f>
+        <v>0.14081653499572763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <f>B7^(-B2)*C7^C2*D7^D2*E7^E2</f>
+        <v>2.0308072762996217</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2">
+        <f>G7/SUM(G4:G11)</f>
+        <v>0.13307836833231454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <f>B8^(-B2)*C8^C2*D8^D2*E8^E2</f>
+        <v>1.8420833930449929</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <f>G8/SUM(G4:G11)</f>
+        <v>0.12071133245354473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <f>B9^(-B2)*C9^C2*D9^D2*E9^E2</f>
+        <v>1.648710819515335</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <f>G9/SUM(G4:G11)</f>
+        <v>0.10803966889104395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <f>B10^(-B2)*C10^C2*D10^D2*E10^E2</f>
+        <v>1.3982225428289203</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2">
+        <f>G10/SUM(G4:G11)</f>
+        <v>9.1625225464122079E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <f>B11^(-B2)*C11^C2*D11^D2*E11^E2</f>
+        <v>1.3395150455675275</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2">
+        <f>G11/SUM(G4:G11)</f>
+        <v>8.7778135671014945E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E6D07-6411-8149-9010-A8916F8EEEC9}">
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <f>B2/SUM(B2:E2)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2/SUM(B2:E2)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2/SUM(B2:E2)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2/SUM(B2:E2)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <f>B5^-B3*C5^C3*D5^D3*E5^E3</f>
+        <v>2.4910480934192814</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5/SUM(F5:F12)</f>
+        <v>0.16455993165388896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B6^-B3*C6^C3*D6^D3*E6^E3</f>
+        <v>2.3091856089298166</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/SUM(F5:F12)</f>
+        <v>0.15254600141422275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <f>B7^-B3*C7^C3*D7^D3*E7^E3</f>
+        <v>2.1287318524121646</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7/SUM(F5:F12)</f>
+        <v>0.14062513247649319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>B8^-B3*C8^C3*D8^D3*E8^E3</f>
+        <v>2.0126001386522843</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8/SUM(F5:F12)</f>
+        <v>0.13295341111163461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9^-B3*C9^C3*D9^D3*E9^E3</f>
+        <v>1.8305740749280075</v>
+      </c>
+      <c r="G9" s="2">
+        <f>F9/SUM(F5:F12)</f>
+        <v>0.12092867474270429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>B10^-B3*C10^C3*D10^D3*E10^E3</f>
+        <v>1.6454132887555681</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10/SUM(F5:F12)</f>
+        <v>0.10869685697972688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <f>B11^-B3*C11^C3*D11^D3*E11^E3</f>
+        <v>1.3895421673057764</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F11/SUM(F5:F12)</f>
+        <v>9.1793877720026756E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <f>B12^-B3*C12^C3*D12^D3*E12^E3</f>
+        <v>1.3305392433761929</v>
+      </c>
+      <c r="G12" s="2">
+        <f>F12/SUM(F5:F12)</f>
+        <v>8.7896113901302433E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WP.xlsx
+++ b/WP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agungperdananto/Documents/SPK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{870BA124-3103-654A-8EE2-713B9801C0DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C332D35E-18DF-4840-B041-021335A96034}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" activeTab="1" xr2:uid="{E5BC9F12-8348-D542-92F9-C1828350C36A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E5BC9F12-8348-D542-92F9-C1828350C36A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>A1</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>V8</t>
+  </si>
+  <si>
+    <t>Bobot</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +141,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,8 +161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,17 +773,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E6D07-6411-8149-9010-A8916F8EEEC9}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
       <c r="B2">
         <v>2</v>
       </c>
@@ -802,8 +803,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <f>B2/SUM(B2:E2)</f>
-        <v>0.15384615384615385</v>
+        <f>-(B2/SUM(B2:E2))</f>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="C3" s="2">
         <f>C2/SUM(B2:E2)</f>
@@ -849,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <f>B5^-B3*C5^C3*D5^D3*E5^E3</f>
+        <f>B5^B3*C5^C3*D5^D3*E5^E3</f>
         <v>2.4910480934192814</v>
       </c>
       <c r="G5" s="4">
@@ -873,11 +874,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
-        <f>B6^-B3*C6^C3*D6^D3*E6^E3</f>
+      <c r="F6" s="4">
+        <f>B6^B3*C6^C3*D6^D3*E6^E3</f>
         <v>2.3091856089298166</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f>F6/SUM(F5:F12)</f>
         <v>0.15254600141422275</v>
       </c>
@@ -898,11 +899,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <f>B7^-B3*C7^C3*D7^D3*E7^E3</f>
+      <c r="F7" s="4">
+        <f>B7^B3*C7^C3*D7^D3*E7^E3</f>
         <v>2.1287318524121646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <f>F7/SUM(F5:F12)</f>
         <v>0.14062513247649319</v>
       </c>
@@ -923,11 +924,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
-        <f>B8^-B3*C8^C3*D8^D3*E8^E3</f>
+      <c r="F8" s="4">
+        <f>B8^B3*C8^C3*D8^D3*E8^E3</f>
         <v>2.0126001386522843</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <f>F8/SUM(F5:F12)</f>
         <v>0.13295341111163461</v>
       </c>
@@ -948,11 +949,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
-        <f>B9^-B3*C9^C3*D9^D3*E9^E3</f>
+      <c r="F9" s="4">
+        <f>B9^B3*C9^C3*D9^D3*E9^E3</f>
         <v>1.8305740749280075</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <f>F9/SUM(F5:F12)</f>
         <v>0.12092867474270429</v>
       </c>
@@ -973,11 +974,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <f>B10^-B3*C10^C3*D10^D3*E10^E3</f>
+      <c r="F10" s="4">
+        <f>B10^B3*C10^C3*D10^D3*E10^E3</f>
         <v>1.6454132887555681</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <f>F10/SUM(F5:F12)</f>
         <v>0.10869685697972688</v>
       </c>
@@ -998,11 +999,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <f>B11^-B3*C11^C3*D11^D3*E11^E3</f>
+      <c r="F11" s="4">
+        <f>B11^B3*C11^C3*D11^D3*E11^E3</f>
         <v>1.3895421673057764</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <f>F11/SUM(F5:F12)</f>
         <v>9.1793877720026756E-2</v>
       </c>
@@ -1023,11 +1024,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
-        <f>B12^-B3*C12^C3*D12^D3*E12^E3</f>
+      <c r="F12" s="4">
+        <f>B12^B3*C12^C3*D12^D3*E12^E3</f>
         <v>1.3305392433761929</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <f>F12/SUM(F5:F12)</f>
         <v>8.7896113901302433E-2</v>
       </c>
